--- a/학습자료/단답형/객관식_국어_기출의지혜_사자성어.xlsx
+++ b/학습자료/단답형/객관식_국어_기출의지혜_사자성어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,29 +449,29 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>護疾忌醫
-1. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
-2. 용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 
-3. 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
+1. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
+2. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+3. 이합집산, 헤어졌다가 모였다가 하는 일</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
+          <t>2, 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>藏頭露尾
-1. 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.
-2. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
-3. 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+          <t xml:space="preserve">藏頭露尾
+1. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
+2. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+3. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
+          <t>1, 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
         </is>
       </c>
     </row>
@@ -479,29 +479,29 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>倒行逆施
-1. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
-2. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
-3. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
+1. 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.
+2. 이합집산, 헤어졌다가 모였다가 하는 일
+3. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
+          <t>3, 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">破邪顯正
-1. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
-2. 화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.
-3. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+          <t>破邪顯正
+1. 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함
+2. 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.
+3. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>3, 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
         </is>
       </c>
     </row>
@@ -509,8 +509,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>束手無策
-1. 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.
-2. 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. 
+1. 부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.
+2. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.
 3. 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
         </is>
       </c>
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>離合集散
-1. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
-2. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+1. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
+2. 2, 파생어
 3. 이합집산, 헤어졌다가 모였다가 하는 일</t>
         </is>
       </c>
@@ -539,24 +539,24 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>格物致知
-1. 이합집산, 헤어졌다가 모였다가 하는 일
+1. 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함
 2. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
-3. 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+3. 붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+          <t>1, 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龍蛇飛騰
+          <t xml:space="preserve">龍蛇飛騰
 1. 용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 
-2. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
-3. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
+2. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있
+3. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,9 +569,9 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>畫蛇添足
-1. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+1. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
 2. 화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.
-3. 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼</t>
+3. 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,76 +584,514 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>針小棒大
-1. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. 
-2. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
-3. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
+1. 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함
+2. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. 
+3. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1, 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+          <t xml:space="preserve">2, 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>犬馬之誠
+          <t xml:space="preserve">犬馬之誠
+1. 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.
+2. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
+3. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>反哺之孝
+1. 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. 
+2. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.
+3. 속</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1, 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>間於齊楚
+1. 1, 합성어
+2. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있
+3. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>蓋世之才
+1. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
+2. 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.
+3. 부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">朋友有信
+1. 붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.
+2. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+3. 용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1, 붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>長幼有序
+1. 장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.
+2. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
+3. 부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1, 장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>君臣有義
+1. 화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.
+2. 군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.
+3. 1, 합성어</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2, 군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>夫婦有別
+1. 화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.
+2. 부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.
+3. 2, 파생어</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">父子有親
+1. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있
+2. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.
+3. 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1, 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>손쉽다(합성어/파생어)
+1. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
+2. 1, 합성어
+3. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2, 1, 합성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>시름없다(합성어/파생어)
+1. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
+2. 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.
+3. 1, 합성어</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, 1, 합성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>남다르다(합성어/파생어)
+1. 1, 합성어
+2. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+3. 2, 파생어</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 1, 합성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>기와집(합성어/파생어)
+1. 장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.
+2. 1, 합성어
+3. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 1, 합성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>치솟다(합성어/파생어)
+1. 2, 파생어
+2. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+3. 부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>고무신(합성어/파생어)
+1. 붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.
+2. 1, 합성어
+3. 이합집산, 헤어졌다가 모였다가 하는 일</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2, 1, 합성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>놀이(합성어/파생어)
+1. 화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.
+2. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있
+3. 2, 파생어</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>마침내(합성어/파생어)
+1. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.
+2. 1, 합성어
+3. 2, 파생어</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>봄내(합성어/파생어)
 1. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
-2. 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.
+2. 2, 파생어
+3. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>여름내(합성어/파생어)
+1. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
+2. 2, 파생어
 3. 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
 남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3, 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저녁내(합성어/파생어)
+1. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. 
+2. 2, 파생어
+3. 용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>들장미(합성어/파생어)
+1. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
+2. 2, 파생어
+3. 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>들국화(합성어/파생어)
+1. 2, 파생어
+2. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
+3. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>끄덕이다(합성어/파생어)
+1. 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.
+2. 2, 파생어
+3. 이합집산, 헤어졌다가 모였다가 하는 일</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>망설이다(합성어/파생어)
+1. 2, 파생어
+2. 군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.
+3. 부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>반짝이다(합성어/파생어)
+1. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.
+2. 붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.
+3. 2, 파생어</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>한껏(합성어/파생어)
+1. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
+2. 2, 파생어
+3. 이합집산, 헤어졌다가 모였다가 하는 일</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>힘껏(합성어/파생어)
+1. 2, 파생어
+2. 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함
+3. 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>눈치껏(합성어/파생어)
+1. 2, 파생어
+2. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있
+3. 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
 남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">反哺之孝
-1. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
-2. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. 
-3. 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3, 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>間於齊楚
-1. 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. 
-2. 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함
-3. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>蓋世之才
-1. 이합집산, 헤어졌다가 모였다가 하는 일
-2. 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.
-3. 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>정성껏(합성어/파생어)
+1. 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.
+2. 이합집산, 헤어졌다가 모였다가 하는 일
+3. 2, 파생어</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>성의껏(합성어/파생어)
+1. 2, 파생어
+2. 붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.
+3. 부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>지금껏(합성어/파생어)
+1. 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.
+2. 2, 파생어
+3. 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>아직껏(합성어/파생어)
+1. 2, 파생어
+2. 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.
+3. 장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">여태껏(합성어/파생어)
+1. 2, 파생어
+2. 군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.
+3. 용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1, 2, 파생어</t>
         </is>
       </c>
     </row>
